--- a/Document/Testing Document.xlsx
+++ b/Document/Testing Document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spyder Projects\Hackthon\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spyder_Projects\Hackathon2020\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Test ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Home page should be rendered once app start running</t>
   </si>
   <si>
-    <t>Tejaswi</t>
-  </si>
-  <si>
     <t>T-02</t>
   </si>
   <si>
@@ -92,52 +89,31 @@
     <t>T-12</t>
   </si>
   <si>
-    <t>Exploratory Data Analysis</t>
-  </si>
-  <si>
-    <t>Detailed Analysis Validation</t>
-  </si>
-  <si>
-    <t>Preliminary Data Analysis Validation</t>
-  </si>
-  <si>
     <t>Verify and validate file should be selected to upload from local machine</t>
   </si>
   <si>
-    <t>File was able to upload from local machine</t>
-  </si>
-  <si>
     <t>Verify whether submit button load the results</t>
   </si>
   <si>
-    <t>Button loaded the preliminary analysis result</t>
-  </si>
-  <si>
-    <t>Button loaded the Detailed analysis result</t>
-  </si>
-  <si>
-    <t>Button loaded the Exploratory Data analysis result</t>
-  </si>
-  <si>
-    <t>Descriptive Analysis</t>
-  </si>
-  <si>
     <t>Data Profiling</t>
   </si>
   <si>
-    <t>Button loaded the Data Profiling result</t>
-  </si>
-  <si>
-    <t>Aspect Generation</t>
-  </si>
-  <si>
-    <t>Button loaded the Aspect  result</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis</t>
-  </si>
-  <si>
-    <t>T-13</t>
+    <t>Uploading 3 files</t>
+  </si>
+  <si>
+    <t>Train Classification model</t>
+  </si>
+  <si>
+    <t>Train Regression model</t>
+  </si>
+  <si>
+    <t>Evaluate Model</t>
+  </si>
+  <si>
+    <t>Upload the file</t>
+  </si>
+  <si>
+    <t>Verify and validate the trained model with inference file</t>
   </si>
 </sst>
 </file>
@@ -169,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,7 +169,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -202,39 +178,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -244,166 +188,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -411,21 +198,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -433,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -450,80 +228,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
@@ -822,299 +555,231 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="6"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B9:B14"/>
+  <mergeCells count="6">
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B8"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B3:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
